--- a/Test_data_for_employee.xlsx
+++ b/Test_data_for_employee.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data For Login" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Test_data_for_employee" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Test_Data_For_Department" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t xml:space="preserve">                Test Cases and Results</t>
   </si>
@@ -168,6 +169,48 @@
   </si>
   <si>
     <t xml:space="preserve">Employee_name should be highlighted in red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_Dept_001_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether the Department Creation is done successfully with valid data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter dept_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department should be created successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Select parent_dept_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Select manager_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keith Byrd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Click on Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_Dept_002_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether the Department Creation is unsuccessful by leaving dept_name empty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department_name field should be highlighted in red</t>
   </si>
 </sst>
 </file>
@@ -311,7 +354,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -377,6 +420,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -464,7 +511,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.66"/>
@@ -678,7 +725,7 @@
   </sheetPr>
   <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1013,4 +1060,195 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:G21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="24.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="26.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="21.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="31.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="19.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="17" width="8.89"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Test_data_for_employee.xlsx
+++ b/Test_data_for_employee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data For Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t xml:space="preserve">                Test Cases and Results</t>
   </si>
@@ -141,7 +141,7 @@
     <t xml:space="preserve">7. Select Department </t>
   </si>
   <si>
-    <t xml:space="preserve">Management / Human Resource</t>
+    <t xml:space="preserve">Management</t>
   </si>
   <si>
     <t xml:space="preserve">8. Select Job_position</t>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t xml:space="preserve">2. Select parent_dept_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Management</t>
   </si>
   <si>
     <t xml:space="preserve">3. Select manager_name</t>
@@ -511,7 +508,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.66"/>
@@ -725,8 +722,8 @@
   </sheetPr>
   <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1069,7 +1066,7 @@
   </sheetPr>
   <dimension ref="A3:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1134,7 +1131,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -1144,10 +1141,10 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1157,7 +1154,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="10"/>
@@ -1166,19 +1163,19 @@
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1190,7 +1187,7 @@
         <v>54</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1200,10 +1197,10 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -1213,7 +1210,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="10"/>
